--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce4a5a5e5f055f94/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{1743A028-F7F0-4847-A1CC-4CBB9BA2EFC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{754006C0-D207-4C60-9756-71329DBB8ED7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40943338-F3FE-4AAD-8D7D-15AC458AA072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Visualizzare l'elenco di tutti gli Attestati conseguiti da un Cliente.</t>
-  </si>
-  <si>
-    <t>Inserita una specifica categoria di Problema, mostrare tutti i Software associati alla stessa.</t>
   </si>
   <si>
     <t>Stampare il numero di esami conseguiti da un Privato.</t>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Inserire un Software con relativo Sistema Operativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rilasciare gli Attestati per tutti i Clienti che hanno conseguito tanti esami quanti sono gli esami previsti dal corso formativo </t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -324,27 +324,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,11 +373,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,567 +690,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8370D60-A724-4BCC-8B6A-A6A42963159D}">
-  <dimension ref="A2:AB31"/>
+  <dimension ref="A2:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="8.88671875" style="3" customWidth="1"/>
-    <col min="14" max="28" width="8.88671875" style="3"/>
+    <col min="1" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="8.88671875" style="1" customWidth="1"/>
+    <col min="14" max="28" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="9"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="2"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="B29:P29"/>
@@ -1252,15 +1311,6 @@
     <mergeCell ref="B9:P9"/>
     <mergeCell ref="B10:P10"/>
     <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550E10F-22B8-45DF-9C46-E00E58C79859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583488F-5EA0-4403-85F0-592239EFB34B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12504" yWindow="948" windowWidth="11352" windowHeight="8772" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>INSERIMENTO</t>
   </si>
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -338,25 +338,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +359,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,34 +374,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8370D60-A724-4BCC-8B6A-A6A42963159D}">
   <dimension ref="A2:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -737,25 +714,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="11"/>
@@ -768,29 +745,29 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
@@ -798,141 +775,141 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="12" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="12" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="12" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="12" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="12" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -942,202 +919,192 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="12" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="12" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="12" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="12" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q15" s="12"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q16" s="12"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
@@ -1148,29 +1115,29 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="12" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
@@ -1178,29 +1145,29 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="12" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
@@ -1208,29 +1175,29 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="12" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
@@ -1238,436 +1205,395 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="12" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="12" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="12" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="12" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="12" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="12" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="12" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="12" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="12" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="16"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="16"/>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="Q32" s="16"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q33" s="16"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+    <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
     </row>
     <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="20">
+      <c r="A34" s="5">
         <v>25</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="12" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
     </row>
     <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="20">
+      <c r="A35" s="5">
         <v>26</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="12" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="20">
+      <c r="A36" s="5">
         <v>27</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="12" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="A2:P2"/>
+  <mergeCells count="60">
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B27:P27"/>
     <mergeCell ref="B35:P35"/>
     <mergeCell ref="B36:P36"/>
     <mergeCell ref="A17:P17"/>
@@ -1684,13 +1610,42 @@
     <mergeCell ref="B24:P24"/>
     <mergeCell ref="B25:P25"/>
     <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583488F-5EA0-4403-85F0-592239EFB34B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B22C2C-E777-4295-8691-7359680AE55E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Visualizzare l'operatore che si prende carico di un Problema.</t>
   </si>
   <si>
-    <t>AGGIORNARE</t>
-  </si>
-  <si>
     <t>Aggiornare il numero di esami dati per un cliente</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Visualizzare quale Software ha avuto piu Problemi</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +268,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -350,21 +344,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,14 +369,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +692,7 @@
   <dimension ref="A2:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33:T33"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -714,30 +705,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
@@ -762,12 +753,12 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
@@ -792,12 +783,12 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -820,12 +811,12 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -848,12 +839,12 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -876,12 +867,12 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -904,12 +895,12 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -936,12 +927,12 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -964,12 +955,12 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -992,12 +983,12 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1020,12 +1011,12 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1048,12 +1039,12 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1076,38 +1067,38 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="11" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
@@ -1132,12 +1123,12 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
@@ -1162,12 +1153,12 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
@@ -1192,12 +1183,12 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
@@ -1206,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1222,12 +1213,12 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1250,12 +1241,12 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -1278,12 +1269,12 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -1306,12 +1297,12 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -1334,12 +1325,12 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="18" t="s">
+      <c r="Q25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1362,19 +1353,19 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1390,12 +1381,12 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -1418,65 +1409,65 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="18" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -1493,107 +1484,134 @@
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>26</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="18" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>27</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-    </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
-        <v>26</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-    </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
-        <v>27</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="18" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="B35:P35"/>
     <mergeCell ref="B36:P36"/>
     <mergeCell ref="A17:P17"/>
@@ -1610,42 +1628,15 @@
     <mergeCell ref="B24:P24"/>
     <mergeCell ref="B25:P25"/>
     <mergeCell ref="B18:P18"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B27:P27"/>
     <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B22C2C-E777-4295-8691-7359680AE55E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3BEA1A-CE08-4BCA-9E83-DDDAD7A24544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>INSERIMENTO</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Rendere compatibile un Software per un determinato Sistema Operativo.</t>
   </si>
   <si>
-    <t>Aggiungere un Attestato conseguito da un Cliente.</t>
-  </si>
-  <si>
     <t>Inserire un Corso Formativo.</t>
   </si>
   <si>
@@ -85,12 +82,6 @@
   </si>
   <si>
     <t>TABELLE COINVOLTE</t>
-  </si>
-  <si>
-    <t>Cliente,Privato</t>
-  </si>
-  <si>
-    <t>Cliente,Azienda</t>
   </si>
   <si>
     <t>Software,Sistema_Operativo</t>
@@ -170,21 +161,18 @@
     <t>Mostrare tutti i Clienti che hanno speso un totale di p Euro.</t>
   </si>
   <si>
-    <t>Cliente,Acquista,Software</t>
-  </si>
-  <si>
     <t>Stampare tutte le Aziende alle quali potrebbe interessare uno specifico Software in base agli acquisti, inserito il tipo di riferimento.</t>
   </si>
   <si>
     <t>Azienda,Cliente,Acquista,Software</t>
   </si>
   <si>
-    <t>Cliente,segue,Corso_Formativo</t>
-  </si>
-  <si>
     <t>Visualizzare l'operatore che si prende carico di un Problema.</t>
   </si>
   <si>
+    <t>AGGIORNARE</t>
+  </si>
+  <si>
     <t>Aggiornare il numero di esami dati per un cliente</t>
   </si>
   <si>
@@ -203,7 +191,145 @@
     <t>Visualizzare quale Software ha avuto piu Problemi</t>
   </si>
   <si>
-    <t>AGGIORNAMENTO</t>
+    <t>PRECONDIZIONI</t>
+  </si>
+  <si>
+    <t>POSTCONDIZIONI</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Cliente,Privato,Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Cliente,Azienda,Telefono/fax</t>
+  </si>
+  <si>
+    <t>Visualizzare i numeri di Telefono/Fax di un Cliente</t>
+  </si>
+  <si>
+    <t>Incrementa una tuple in piu su Acquista e Software</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Software e Sistema_Operativo</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Corso_Formativo</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Problema</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Attestato</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Operatore</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Segue</t>
+  </si>
+  <si>
+    <t>Incrementa una Tupla in piu su Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Sistema_Operativo</t>
+  </si>
+  <si>
+    <t>Bisogna passare un Parametro Codice Cliente C</t>
+  </si>
+  <si>
+    <t>Incrementa una tuple in piu su Cliente, Privato e Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Incrementa una tupla in piu su Cliente,Azienda e Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Stampa la tupla cui il Codice Cliente corrisponde a  C</t>
+  </si>
+  <si>
+    <t>Segue,Corso_Formativo,Cliente,Aziende,Privato</t>
+  </si>
+  <si>
+    <t>Bisogna passare un Parametro Codice Corso_Formativo CF</t>
+  </si>
+  <si>
+    <t>Stampa tutte le tuple cui il Codice del Corso_Formativo corrisponde a CF</t>
+  </si>
+  <si>
+    <t>Bisogna passare il numero di esami dati n e il Codice del Corso CF</t>
+  </si>
+  <si>
+    <t>Stampa tutte le tuple cui il numero di esami dati è maggiore di n e il Codice del Corso Formativo corrisponde</t>
+  </si>
+  <si>
+    <t>Bisogna passare il Codice del Software S e le Segnalazioni del Problema Segn</t>
+  </si>
+  <si>
+    <t>Stampa la tupla cui il Codice Software corrisponde a S e il numero delle segnalazioni a Segn</t>
+  </si>
+  <si>
+    <t>Bisogna passare un Parametro Codice Software S</t>
+  </si>
+  <si>
+    <t>Stampa le tuple cui il Codice del Software corrisponde a S</t>
+  </si>
+  <si>
+    <t>Stampa le tuple cui il prezzo del Software è pari o superiore a s</t>
+  </si>
+  <si>
+    <t>Privato,Azienda,Cliente,Acquista,Software</t>
+  </si>
+  <si>
+    <t>Azienda,Privato,Cliente,Attestato</t>
+  </si>
+  <si>
+    <t>Bisogna passare un parametro Codice Cliente C</t>
+  </si>
+  <si>
+    <t>Bisogna passare un paramentro Software Tipo T</t>
+  </si>
+  <si>
+    <t>Stampa tutte le tuple cui il Tipo corrisponde a T</t>
+  </si>
+  <si>
+    <t>Bisogna passare un parametro float s</t>
+  </si>
+  <si>
+    <t>Privato,Azienda,Cliente,Segue,Corso_Formativo</t>
+  </si>
+  <si>
+    <t>Stampa tutte le tuple cui il numero di esami dati da un Cliente(Privato o Azienda) è pari a quello del Corso Formativo</t>
+  </si>
+  <si>
+    <t>Stampa il Software che ha avuto più Problemi</t>
+  </si>
+  <si>
+    <t>Bisogna passare un Paramentro Codice Software S e il numero delle segnalazioni Segn</t>
+  </si>
+  <si>
+    <t>Stampa la tupla cui corrisponde il Codice Sofware con S e il numero di segnalazioni con Segn</t>
+  </si>
+  <si>
+    <t>Bisogna passare un Codice Cliente C</t>
+  </si>
+  <si>
+    <t>Bisogna passare un parametro  Codice Cliente C e un parametro Codice Corso_Formativo CF</t>
+  </si>
+  <si>
+    <t>Aggiorna  il numero di esami dati di 1 di un Cliente,se il Codice Cliente corrispondente a C e il Corso Formativo corrispondente a CF esistono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiorna il prezzo del con il Prezzo P passato se il Codice C richiesto esiste </t>
+  </si>
+  <si>
+    <t>Bisogna passare un parametro Prezzo P e il Codice del Cliente C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisogna passare un parametro Risolto ris e i Parametri Codice Software S e Numero num </t>
+  </si>
+  <si>
+    <t>Aggiorna il campo Risolto con il parametro Ris passato se,il numero delle segnalazioni e il Codice del Software S corrispondenti esistono</t>
   </si>
 </sst>
 </file>
@@ -258,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +397,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -332,16 +464,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -373,6 +516,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8370D60-A724-4BCC-8B6A-A6A42963159D}">
   <dimension ref="A2:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -704,7 +864,7 @@
     <col min="21" max="28" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -722,22 +882,39 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -752,22 +929,37 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+    </row>
+    <row r="4" spans="1:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -782,20 +974,37 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -810,20 +1019,37 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -838,20 +1064,37 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -866,20 +1109,37 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -894,24 +1154,37 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -926,20 +1199,37 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -954,20 +1244,37 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -982,20 +1289,37 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1010,16 +1334,33 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1038,41 +1379,92 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="U15" s="20"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="U16" s="20"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
@@ -1094,20 +1486,37 @@
       <c r="O17" s="14"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>13</v>
+      <c r="A18" s="3">
+        <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1124,17 +1533,34 @@
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>14</v>
+      <c r="A19" s="3">
+        <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -1153,21 +1579,38 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
+      <c r="Q19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>15</v>
+      <c r="A20" s="3">
+        <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1184,20 +1627,37 @@
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>16</v>
+      <c r="A21" s="3">
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1214,15 +1674,34 @@
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>17</v>
+      <c r="A22" s="3">
+        <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>2</v>
@@ -1242,18 +1721,37 @@
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>18</v>
+      <c r="A23" s="3">
+        <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1270,15 +1768,34 @@
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>19</v>
+      <c r="A24" s="3">
+        <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>3</v>
@@ -1298,18 +1815,37 @@
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="16" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>20</v>
+      <c r="A25" s="3">
+        <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1326,18 +1862,37 @@
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>21</v>
+      <c r="A26" s="3">
+        <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1354,18 +1909,37 @@
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="16" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>22</v>
+      <c r="A27" s="3">
+        <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1382,18 +1956,37 @@
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>23</v>
+      <c r="A28" s="3">
+        <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1410,18 +2003,37 @@
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>24</v>
+      <c r="A29" s="3">
+        <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1438,18 +2050,73 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="A30" s="3">
+        <v>24</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P31" s="5"/>
@@ -1457,6 +2124,18 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P32" s="5"/>
@@ -1464,10 +2143,22 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="U32" s="20"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+    </row>
+    <row r="33" spans="1:35" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -1485,18 +2176,37 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
-    </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U33" s="9"/>
+      <c r="V33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+    </row>
+    <row r="34" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1513,18 +2223,37 @@
       <c r="O34" s="11"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U34" s="16"/>
+      <c r="V34" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+    </row>
+    <row r="35" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>26</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1541,18 +2270,37 @@
       <c r="O35" s="11"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
-    </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U35" s="16"/>
+      <c r="V35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+    </row>
+    <row r="36" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1569,49 +2317,130 @@
       <c r="O36" s="11"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
+  <mergeCells count="119">
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AB6:AI6"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB33:AI33"/>
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="AB35:AI35"/>
+    <mergeCell ref="AB36:AI36"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="AB30:AI30"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="B12:P12"/>
     <mergeCell ref="B13:P13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
     <mergeCell ref="A33:P33"/>
     <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q36:U36"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="B35:P35"/>
     <mergeCell ref="B36:P36"/>
     <mergeCell ref="A17:P17"/>
@@ -1622,7 +2451,6 @@
     <mergeCell ref="B9:P9"/>
     <mergeCell ref="B10:P10"/>
     <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B14:P14"/>
     <mergeCell ref="B26:P26"/>
     <mergeCell ref="B23:P23"/>
     <mergeCell ref="B24:P24"/>
@@ -1630,13 +2458,11 @@
     <mergeCell ref="B18:P18"/>
     <mergeCell ref="B28:P28"/>
     <mergeCell ref="B29:P29"/>
-    <mergeCell ref="Q33:T33"/>
     <mergeCell ref="B19:P19"/>
     <mergeCell ref="B20:P20"/>
     <mergeCell ref="B21:P21"/>
     <mergeCell ref="B22:P22"/>
     <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3BEA1A-CE08-4BCA-9E83-DDDAD7A24544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB079EF4-642E-4731-94F1-75B43928CC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>INSERIMENTO</t>
   </si>
@@ -330,6 +330,39 @@
   </si>
   <si>
     <t>Aggiorna il campo Risolto con il parametro Ris passato se,il numero delle segnalazioni e il Codice del Software S corrispondenti esistono</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Cliente,Privato e Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Cliente,Azienda e Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Software e Sistema_Operativo</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Corso_Formativo</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Problema</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Attestato</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Operatore</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Segue</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Acquista e Software</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Telefono/Fax</t>
+  </si>
+  <si>
+    <t>Devono essere acquisite tutte le informazioni inerenti a Sistema_Operativo</t>
   </si>
 </sst>
 </file>
@@ -488,16 +521,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -512,28 +565,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +885,7 @@
   <dimension ref="A2:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:AA4"/>
+      <selection activeCell="V13" sqref="V13:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -865,544 +898,566 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="21" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="19" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
     </row>
     <row r="4" spans="1:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="16" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="19" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="16" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="19" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="16" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="19" t="s">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="16" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="19" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="16" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="19" t="s">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="16" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="19" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="16" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="19" t="s">
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="16" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="19" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="16" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="19" t="s">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="16" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="19" t="s">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1425,7 +1480,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="20"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1439,7 +1494,7 @@
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="U15" s="20"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1453,7 +1508,7 @@
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="U16" s="20"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -1467,656 +1522,656 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="9" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="21" t="s">
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="22" t="s">
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="16" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="19" t="s">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18" t="s">
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="23" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="19" t="s">
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18" t="s">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="16" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="19" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18" t="s">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="16" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="19" t="s">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18" t="s">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="16" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="19" t="s">
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18" t="s">
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="16" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="19" t="s">
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18" t="s">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="16" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="19" t="s">
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18" t="s">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>19</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="16" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="19" t="s">
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18" t="s">
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="16" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="19" t="s">
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18" t="s">
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>21</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="16" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="19" t="s">
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18" t="s">
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="16" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="19" t="s">
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>23</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="16" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>24</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="16" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="19" t="s">
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18" t="s">
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P31" s="5"/>
@@ -2124,7 +2179,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="20"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -2143,7 +2198,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="20"/>
+      <c r="U32" s="6"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -2175,190 +2230,254 @@
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="22" t="s">
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22" t="s">
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
     </row>
     <row r="34" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="16" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="18" t="s">
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18" t="s">
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
     </row>
     <row r="35" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>26</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="16" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="18" t="s">
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18" t="s">
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
     </row>
     <row r="36" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>27</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="16" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="18" t="s">
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18" t="s">
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AB6:AI6"/>
-    <mergeCell ref="AB7:AI7"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB33:AI33"/>
-    <mergeCell ref="AB34:AI34"/>
-    <mergeCell ref="AB35:AI35"/>
-    <mergeCell ref="AB36:AI36"/>
-    <mergeCell ref="AB29:AI29"/>
-    <mergeCell ref="AB30:AI30"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q17:U17"/>
     <mergeCell ref="Q33:U33"/>
     <mergeCell ref="Q34:U34"/>
     <mergeCell ref="Q35:U35"/>
@@ -2383,86 +2502,22 @@
     <mergeCell ref="AB25:AI25"/>
     <mergeCell ref="AB26:AI26"/>
     <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AB6:AI6"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB33:AI33"/>
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="AB35:AI35"/>
+    <mergeCell ref="AB36:AI36"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="AB30:AI30"/>
     <mergeCell ref="AB28:AI28"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="AB4:AI4"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B35:P35"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB079EF4-642E-4731-94F1-75B43928CC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23387A6E-8263-4E34-9E8C-5091EDE6BD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>INSERIMENTO</t>
   </si>
@@ -364,12 +364,18 @@
   <si>
     <t>Devono essere acquisite tutte le informazioni inerenti a Sistema_Operativo</t>
   </si>
+  <si>
+    <t>Stampa la tupla con la quantita di clienti che hanno acquistato un Software con codice S</t>
+  </si>
+  <si>
+    <t>Stampa le tuple cui il Codice Cliente corrisponde a  C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +417,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -510,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -523,31 +537,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +552,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,8 +567,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +902,7 @@
   <dimension ref="A2:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13:AA13"/>
+      <selection activeCell="V6" sqref="V6:AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -898,566 +915,566 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="11" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="14" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="8" t="s">
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
     </row>
     <row r="4" spans="1:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="12" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="8" t="s">
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="s">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="8" t="s">
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="12" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12" t="s">
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="8" t="s">
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="12" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="s">
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="8" t="s">
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="12" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12" t="s">
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="8" t="s">
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="12" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="s">
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="8" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="8" t="s">
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12" t="s">
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="8" t="s">
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="12" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12" t="s">
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="8" t="s">
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="12" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12" t="s">
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="8" t="s">
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1522,118 +1539,118 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="11" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="14" t="s">
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="10" t="s">
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="12" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="8" t="s">
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9" t="s">
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="24"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1641,537 +1658,541 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="8" t="s">
+      <c r="V19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9" t="s">
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="12" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="8" t="s">
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9" t="s">
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="12" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="8" t="s">
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9" t="s">
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="12" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="8" t="s">
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9" t="s">
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="12" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="8" t="s">
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9" t="s">
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="12" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="8" t="s">
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9" t="s">
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>19</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="12" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="8" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9" t="s">
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>20</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="12" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="8" t="s">
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9" t="s">
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>21</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="12" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="8" t="s">
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9" t="s">
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="12" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="8" t="s">
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9" t="s">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>23</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="12" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>24</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="12" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="8" t="s">
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P31" s="5"/>
@@ -2212,202 +2233,279 @@
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="11" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="10" t="s">
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10" t="s">
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
     </row>
     <row r="34" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="12" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="9" t="s">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9" t="s">
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
     </row>
     <row r="35" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>26</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="12" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="9" t="s">
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9" t="s">
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
     </row>
     <row r="36" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>27</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="12" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="9" t="s">
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9" t="s">
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AB6:AI6"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB33:AI33"/>
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="AB35:AI35"/>
+    <mergeCell ref="AB36:AI36"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="AB30:AI30"/>
+    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="AB26:AI26"/>
+    <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="V4:AA4"/>
     <mergeCell ref="B34:P34"/>
     <mergeCell ref="Q36:U36"/>
     <mergeCell ref="B3:P3"/>
@@ -2432,92 +2530,15 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="AB4:AI4"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="V27:AA27"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="AB25:AI25"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="AB27:AI27"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AB6:AI6"/>
-    <mergeCell ref="AB7:AI7"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB33:AI33"/>
-    <mergeCell ref="AB34:AI34"/>
-    <mergeCell ref="AB35:AI35"/>
-    <mergeCell ref="AB36:AI36"/>
-    <mergeCell ref="AB29:AI29"/>
-    <mergeCell ref="AB30:AI30"/>
-    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="A33:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni.xlsx
+++ b/Operazioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23387A6E-8263-4E34-9E8C-5091EDE6BD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A022F4-6FF5-4AFA-944D-99FA22383EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AF0CB5-C1F4-4C11-BFC9-FD3CA0688778}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>Stampa le tuple cui il Codice del Software corrisponde a S</t>
   </si>
   <si>
-    <t>Stampa le tuple cui il prezzo del Software è pari o superiore a s</t>
-  </si>
-  <si>
     <t>Privato,Azienda,Cliente,Acquista,Software</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>Stampa tutte le tuple cui il Tipo corrisponde a T</t>
   </si>
   <si>
-    <t>Bisogna passare un parametro float s</t>
-  </si>
-  <si>
     <t>Privato,Azienda,Cliente,Segue,Corso_Formativo</t>
   </si>
   <si>
@@ -369,6 +363,12 @@
   </si>
   <si>
     <t>Stampa le tuple cui il Codice Cliente corrisponde a  C</t>
+  </si>
+  <si>
+    <t>Bisogna passare il parametro p Euro</t>
+  </si>
+  <si>
+    <t>Stampa le tuple cui il prezzo del Software è pari o superiore a p</t>
   </si>
 </sst>
 </file>
@@ -537,26 +537,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,22 +579,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8370D60-A724-4BCC-8B6A-A6A42963159D}">
   <dimension ref="A2:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:AA6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17:AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -915,566 +915,566 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="16" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="20" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="15" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="22" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
     </row>
     <row r="4" spans="1:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="15" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="22" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="15" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="22" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="22" t="s">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="15" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="22" t="s">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="15" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="22" t="s">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="15" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="22" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="15" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="22" t="s">
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="15" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="22" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="15" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="22" t="s">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="15" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="22" t="s">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1539,118 +1539,118 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="16" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="20" t="s">
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="21" t="s">
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="22" t="s">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23" t="s">
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="24"/>
       <c r="Q19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1658,541 +1658,541 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="22" t="s">
+      <c r="V19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23" t="s">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="22" t="s">
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23" t="s">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="15" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="22" t="s">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23" t="s">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="15" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="22" t="s">
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23" t="s">
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="15" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="25" t="s">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="15" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="22" t="s">
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="22" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="15" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="22" t="s">
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="15" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>23</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="15" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="22" t="s">
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>24</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="15" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P31" s="5"/>
@@ -2233,207 +2233,274 @@
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="16" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="21" t="s">
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21" t="s">
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
     </row>
     <row r="34" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
     </row>
     <row r="35" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>26</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
     </row>
     <row r="36" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>27</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="AB6:AI6"/>
-    <mergeCell ref="AB7:AI7"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB33:AI33"/>
-    <mergeCell ref="AB34:AI34"/>
-    <mergeCell ref="AB35:AI35"/>
-    <mergeCell ref="AB36:AI36"/>
-    <mergeCell ref="AB29:AI29"/>
-    <mergeCell ref="AB30:AI30"/>
-    <mergeCell ref="AB28:AI28"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="B34:P34"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AB12:AI12"/>
     <mergeCell ref="Q33:U33"/>
     <mergeCell ref="Q34:U34"/>
     <mergeCell ref="Q35:U35"/>
@@ -2458,87 +2525,20 @@
     <mergeCell ref="AB25:AI25"/>
     <mergeCell ref="AB26:AI26"/>
     <mergeCell ref="AB27:AI27"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V17:AA17"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="AB4:AI4"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="B34:P34"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B35:P35"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AB6:AI6"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB33:AI33"/>
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="AB35:AI35"/>
+    <mergeCell ref="AB36:AI36"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="AB30:AI30"/>
+    <mergeCell ref="AB28:AI28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
